--- a/assets/layout/screen2Elements.xlsx
+++ b/assets/layout/screen2Elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Python\FinanceManager\assets\layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0119BC09-E55D-4E82-AF23-39BB132FD3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6697CEC1-CF4D-4D07-9CEA-F853E314A691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buttons" sheetId="1" r:id="rId1"/>
@@ -130,51 +130,27 @@
     <t>lbSelectYearAddInvestments2</t>
   </si>
   <si>
-    <t>Year:</t>
-  </si>
-  <si>
     <t>lbSelectMonthAddINvestments2</t>
   </si>
   <si>
-    <t>Month:</t>
-  </si>
-  <si>
     <t>lbSelectDate2</t>
   </si>
   <si>
-    <t>Date:</t>
-  </si>
-  <si>
     <t>lbFixedDeposits2</t>
   </si>
   <si>
-    <t>Fixed Deposits</t>
-  </si>
-  <si>
     <t>lbMutualFunds2</t>
   </si>
   <si>
-    <t>Mutual Funds</t>
-  </si>
-  <si>
     <t>lbStocks2</t>
   </si>
   <si>
-    <t>Stocks</t>
-  </si>
-  <si>
     <t>lbPF2</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>lbCrypto2</t>
   </si>
   <si>
-    <t>Crypto-Currency</t>
-  </si>
-  <si>
     <t>buttonType</t>
   </si>
   <si>
@@ -200,6 +176,30 @@
   </si>
   <si>
     <t>grid</t>
+  </si>
+  <si>
+    <t>PF :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stocks : </t>
+  </si>
+  <si>
+    <t>Mutual Funds :</t>
+  </si>
+  <si>
+    <t>Fixed Deposits :</t>
+  </si>
+  <si>
+    <t>Crypto-Currency :</t>
+  </si>
+  <si>
+    <t>Date :</t>
+  </si>
+  <si>
+    <t>Month :</t>
+  </si>
+  <si>
+    <t>Year :</t>
   </si>
 </sst>
 </file>
@@ -631,13 +631,13 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2">
         <v>250</v>
@@ -694,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2">
         <v>400</v>
@@ -727,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
         <v>1100</v>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -779,8 +779,8 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J3" s="2">
         <v>3</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>300</v>
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2">
         <v>3</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>500</v>
@@ -951,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2">
         <v>3</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
         <v>100</v>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J7" s="2">
         <v>3</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>100</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J8" s="2">
         <v>3</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>100</v>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2">
         <v>3</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2">
         <v>100</v>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2">
         <v>3</v>
@@ -1472,7 +1472,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1495,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/layout/screen2Elements.xlsx
+++ b/assets/layout/screen2Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Buttons"/>
@@ -17,18 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>Parameter</t>
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>grid</t>
   </si>
   <si>
     <t>rows</t>
@@ -582,7 +576,7 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -601,40 +595,40 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3">
         <v>100</v>
@@ -655,10 +649,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3">
         <v>2</v>
@@ -667,7 +661,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3">
         <v>250</v>
@@ -688,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -700,7 +694,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3">
         <v>400</v>
@@ -721,10 +715,10 @@
         <v>6</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -733,7 +727,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3">
         <v>1100</v>
@@ -754,10 +748,10 @@
         <v>12</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -795,40 +789,40 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3">
         <v>600</v>
@@ -849,10 +843,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -861,7 +855,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -882,10 +876,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J3" s="3">
         <v>3</v>
@@ -894,7 +888,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3">
         <v>300</v>
@@ -915,10 +909,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
@@ -927,7 +921,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3">
         <v>500</v>
@@ -948,10 +942,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J5" s="3">
         <v>3</v>
@@ -960,7 +954,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3">
         <v>100</v>
@@ -981,10 +975,10 @@
         <v>8</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J6" s="3">
         <v>3</v>
@@ -993,7 +987,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3">
         <v>100</v>
@@ -1014,10 +1008,10 @@
         <v>8</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7" s="3">
         <v>3</v>
@@ -1026,7 +1020,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3">
         <v>100</v>
@@ -1047,10 +1041,10 @@
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
@@ -1059,7 +1053,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3">
         <v>100</v>
@@ -1080,10 +1074,10 @@
         <v>8</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J9" s="3">
         <v>3</v>
@@ -1092,7 +1086,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3">
         <v>100</v>
@@ -1113,10 +1107,10 @@
         <v>8</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10" s="3">
         <v>3</v>
@@ -1192,37 +1186,37 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="J1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>180</v>
@@ -1243,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="7">
         <v>0</v>
@@ -1252,7 +1246,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>380</v>
@@ -1273,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="7">
         <v>0</v>
@@ -1282,7 +1276,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3">
         <v>580</v>
@@ -1303,7 +1297,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
@@ -1312,7 +1306,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3">
         <v>125</v>
@@ -1333,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1342,7 +1336,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3">
         <v>125</v>
@@ -1363,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1372,7 +1366,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3">
         <v>125</v>
@@ -1393,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1402,7 +1396,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3">
         <v>125</v>
@@ -1423,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1432,7 +1426,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3">
         <v>125</v>
@@ -1453,7 +1447,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1482,9 +1476,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1504,24 +1498,24 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="3">
+        <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>18</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -1530,14 +1524,6 @@
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
